--- a/www.eia.gov/electricity/monthly/xls/table_a_5_bcontinued.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_5_bcontinued.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.5.B. Relative Standard Error for Net Generation by Fuel Type:</t>
   </si>
   <si>
-    <t>Industrial Sector by Census Division and State, Year-to-Date through October 2016 (Continued)</t>
+    <t>Industrial Sector by Census Division and State, Year-to-Date through November 2016 (Continued)</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I4" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I6" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="8">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F9" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1386,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="8">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="F10" s="8">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="8">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F12" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1473,16 +1473,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="6">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F13" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="6">
         <v>7</v>
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I14" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G15" s="8">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="8">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1589,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F17" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="8">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I18" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1656,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="6">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I19" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1679,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20" s="8">
         <v>0</v>
       </c>
       <c r="H20" s="8">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="I20" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="8">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="8">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I22" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="8">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="8">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="8">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="8">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G27" s="8">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" s="8">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="8">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1998,16 +1998,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" s="8">
         <v>0</v>
       </c>
       <c r="H31" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I31" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="6">
         <v>0</v>
       </c>
       <c r="H35" s="6">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="I35" s="6">
         <v>4</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G36" s="8">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G37" s="8">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2201,16 +2201,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="8">
         <v>0</v>
       </c>
       <c r="H38" s="8">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="I38" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G39" s="8">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" s="6">
         <v>2</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I42" s="8">
         <v>2</v>
@@ -2346,16 +2346,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="8">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G43" s="8">
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I43" s="8">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2375,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" s="8">
         <v>0</v>
       </c>
       <c r="H44" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I44" s="8">
         <v>2</v>
@@ -2401,16 +2401,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="6">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="F45" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I45" s="6">
         <v>7</v>
@@ -2433,16 +2433,16 @@
         <v>0</v>
       </c>
       <c r="F46" s="8">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="G46" s="8">
         <v>0</v>
       </c>
       <c r="H46" s="8">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I46" s="8">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="H47" s="8">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I47" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="8">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G48" s="8">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="8">
-        <v>144</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="8">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="F49" s="8">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="G49" s="8">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="8">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="8">
-        <v>123</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="8">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2633,19 +2633,19 @@
         <v>0</v>
       </c>
       <c r="E53" s="6">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F53" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G53" s="6">
         <v>0</v>
       </c>
       <c r="H53" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I53" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2662,19 +2662,19 @@
         <v>0</v>
       </c>
       <c r="E54" s="8">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F54" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G54" s="8">
         <v>0</v>
       </c>
       <c r="H54" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I54" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G55" s="8">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G56" s="8">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G57" s="6">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="6">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="8">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="G58" s="8">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="8">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G59" s="8">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="8">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2836,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="E60" s="6">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F60" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" s="6">
         <v>0</v>
       </c>
       <c r="H60" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I60" s="6">
         <v>1</v>
